--- a/pa-regression.xlsx
+++ b/pa-regression.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecbe3cb8a96f0242/Rworkspace/fundamentals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecbe3cb8a96f0242/PythonWorkspace/regression_work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AA8F13-2407-4585-B267-AE8B5DD99075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F8AA8F13-2407-4585-B267-AE8B5DD99075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90A2253F-5A09-4091-B010-76662127512D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27990" yWindow="4395" windowWidth="27735" windowHeight="15555" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,34 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1593,7 +1621,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,6 +1951,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Vendor xmlns="0feec74c-ecc7-44c3-9c64-3623cf89ed41">N/A</Vendor>
@@ -1957,15 +1994,6 @@
     </Performance_x0020_Steps_x0020_Completed>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2331,6 +2359,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518CA958-AAFE-4351-9CF5-763D5748E529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D882DB2A-4F28-4D0E-838C-7962B9BAF661}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2342,14 +2378,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="0feec74c-ecc7-44c3-9c64-3623cf89ed41"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{518CA958-AAFE-4351-9CF5-763D5748E529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
